--- a/CodeSystem-nigeria-facility-type.xlsx
+++ b/CodeSystem-nigeria-facility-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T12:11:34+01:00</t>
+    <t>2025-06-23T13:45:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-nigeria-facility-type.xlsx
+++ b/CodeSystem-nigeria-facility-type.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>NG Facility Type</t>
+    <t>NG-Imm Facility Type CS</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T13:45:54+01:00</t>
+    <t>2025-06-24T09:13:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-nigeria-facility-type.xlsx
+++ b/CodeSystem-nigeria-facility-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T09:13:37+01:00</t>
+    <t>2025-06-25T06:29:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-nigeria-facility-type.xlsx
+++ b/CodeSystem-nigeria-facility-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T06:29:04+01:00</t>
+    <t>2025-06-30T08:07:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-nigeria-facility-type.xlsx
+++ b/CodeSystem-nigeria-facility-type.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://nphcda.gov.ng/ig/fhir/CodeSystem/ng-facility-typeCS</t>
+    <t>https://nphcda.gov.ng/immunizationIG/CodeSystem/nigeria-facility-type</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-30T08:07:26+01:00</t>
+    <t>2025-07-03T11:54:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -123,7 +123,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>8</t>
+    <t>5</t>
   </si>
   <si>
     <t>Level</t>
@@ -141,67 +141,40 @@
     <t>1</t>
   </si>
   <si>
-    <t>private-clinic</t>
-  </si>
-  <si>
-    <t>Private Clinic</t>
-  </si>
-  <si>
-    <t>The Health facility is a primary health facility owned by the private sector</t>
-  </si>
-  <si>
-    <t>private-hospital</t>
-  </si>
-  <si>
-    <t>Private Hospital</t>
-  </si>
-  <si>
-    <t>The Health facility is a Secondary health facility owned by the private sector</t>
-  </si>
-  <si>
-    <t>public-health-post</t>
-  </si>
-  <si>
-    <t>Public Health Post</t>
-  </si>
-  <si>
-    <t>The Health facility is a primary health facility owned by the government</t>
-  </si>
-  <si>
-    <t>public-chc</t>
-  </si>
-  <si>
-    <t>Public CHC</t>
+    <t>clinic</t>
+  </si>
+  <si>
+    <t>Clinic</t>
+  </si>
+  <si>
+    <t>The Health facility is a primary health facility</t>
+  </si>
+  <si>
+    <t>hospital</t>
+  </si>
+  <si>
+    <t>Hospital</t>
+  </si>
+  <si>
+    <t>The Health facility is a Secondary health facilities and General Hospitals</t>
+  </si>
+  <si>
+    <t>health-post</t>
+  </si>
+  <si>
+    <t>Health Post</t>
+  </si>
+  <si>
+    <t>The Health facility is a primary health facility in category of dispensories</t>
+  </si>
+  <si>
+    <t>chc</t>
+  </si>
+  <si>
+    <t>Comprehensive Health Centers</t>
   </si>
   <si>
     <t>The Health facility is a comprehensive primary health center owned by the government</t>
-  </si>
-  <si>
-    <t>public-general</t>
-  </si>
-  <si>
-    <t>General Hospitals</t>
-  </si>
-  <si>
-    <t>These are General Hospitals owned by the government</t>
-  </si>
-  <si>
-    <t>faith-clinic</t>
-  </si>
-  <si>
-    <t>Faith-based Clinics</t>
-  </si>
-  <si>
-    <t>These are PHCs owned by the owned by faith orgnization (eg. mission clinics)</t>
-  </si>
-  <si>
-    <t>faith-hospital</t>
-  </si>
-  <si>
-    <t>Faith-based Hospitals</t>
-  </si>
-  <si>
-    <t>These are Secondary facilities owned by faith orgnization (eg. mission Hospitals)</t>
   </si>
   <si>
     <t>tertiary</t>
@@ -529,7 +502,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -619,48 +592,6 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>65</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CodeSystem-nigeria-facility-type.xlsx
+++ b/CodeSystem-nigeria-facility-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-03T11:54:34+01:00</t>
+    <t>2025-07-03T13:36:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-nigeria-facility-type.xlsx
+++ b/CodeSystem-nigeria-facility-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-03T13:36:09+01:00</t>
+    <t>2025-07-04T07:50:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-nigeria-facility-type.xlsx
+++ b/CodeSystem-nigeria-facility-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T07:50:29+01:00</t>
+    <t>2025-07-04T16:58:52+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-nigeria-facility-type.xlsx
+++ b/CodeSystem-nigeria-facility-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T16:58:52+01:00</t>
+    <t>2025-07-04T18:56:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-nigeria-facility-type.xlsx
+++ b/CodeSystem-nigeria-facility-type.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T18:56:28+01:00</t>
+    <t>2025-07-04T19:33:02+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-nigeria-facility-type.xlsx
+++ b/CodeSystem-nigeria-facility-type.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T19:33:02+01:00</t>
+    <t>2025-07-17T18:57:38+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -123,7 +123,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>5</t>
+    <t>6</t>
   </si>
   <si>
     <t>Level</t>
@@ -141,49 +141,58 @@
     <t>1</t>
   </si>
   <si>
-    <t>clinic</t>
-  </si>
-  <si>
-    <t>Clinic</t>
-  </si>
-  <si>
-    <t>The Health facility is a primary health facility</t>
+    <t>outreach-post</t>
+  </si>
+  <si>
+    <t>Outreach Post</t>
+  </si>
+  <si>
+    <t>A temporary or mobile health service site established to deliver essential healthcare to underserved or remote populations.</t>
+  </si>
+  <si>
+    <t>phc-center-l1</t>
+  </si>
+  <si>
+    <t>PHC Center Level 1</t>
+  </si>
+  <si>
+    <t>A basic primary healthcare facility providing preventive and promotive services, often staffed by community health workers.</t>
+  </si>
+  <si>
+    <t>phc-center-l2</t>
+  </si>
+  <si>
+    <t>PHC Center Level 2</t>
+  </si>
+  <si>
+    <t>A primary healthcare facility with limited diagnostic and treatment services, typically staffed by nurses, CHEWs, or junior medical personnel.</t>
+  </si>
+  <si>
+    <t>phc-center-l3</t>
+  </si>
+  <si>
+    <t>PHC Center Level 3</t>
+  </si>
+  <si>
+    <t>An advanced primary healthcare facility offering comprehensive outpatient care, minor/light procedures, and referral support, often with a resident medical officer.</t>
   </si>
   <si>
     <t>hospital</t>
   </si>
   <si>
-    <t>Hospital</t>
-  </si>
-  <si>
-    <t>The Health facility is a Secondary health facilities and General Hospitals</t>
-  </si>
-  <si>
-    <t>health-post</t>
-  </si>
-  <si>
-    <t>Health Post</t>
-  </si>
-  <si>
-    <t>The Health facility is a primary health facility in category of dispensories</t>
-  </si>
-  <si>
-    <t>chc</t>
-  </si>
-  <si>
-    <t>Comprehensive Health Centers</t>
-  </si>
-  <si>
-    <t>The Health facility is a comprehensive primary health center owned by the government</t>
+    <t>Secondary Hospital</t>
+  </si>
+  <si>
+    <t>A referral facility providing specialized care, inpatient services, and emergency response, staffed by medical officers and specialists.</t>
   </si>
   <si>
     <t>tertiary</t>
   </si>
   <si>
-    <t>Tertiary facility</t>
-  </si>
-  <si>
-    <t>These are Higher level facilities and referal centers)</t>
+    <t>Tertiary Facility</t>
+  </si>
+  <si>
+    <t>A highly specialized hospital offering advanced diagnostic, therapeutic, and surgical care, often affiliated with teaching or research institutions.</t>
   </si>
 </sst>
 </file>
@@ -502,7 +511,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -592,6 +601,20 @@
         <v>56</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CodeSystem-nigeria-facility-type.xlsx
+++ b/CodeSystem-nigeria-facility-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T18:57:38+01:00</t>
+    <t>2025-08-03T02:35:31+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-nigeria-facility-type.xlsx
+++ b/CodeSystem-nigeria-facility-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-03T02:35:31+01:00</t>
+    <t>2025-08-03T02:50:50+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
